--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Factorial of Large Number</t>
+  </si>
+  <si>
+    <t>Cyclically rotate an array by one</t>
+  </si>
+  <si>
+    <t>Find minimum and maximum element in an array</t>
   </si>
 </sst>
 </file>
@@ -180,20 +186,21 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -216,7 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,331 +503,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="3">
         <v>45077</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>45077</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>45077</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>45077</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>45077</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>45077</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>45077</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>45077</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3">
         <v>45078</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3">
         <v>45078</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3">
         <v>45078</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
         <v>45079</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
         <v>45079</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
         <v>45079</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
         <v>45079</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>45079</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>45079</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="40">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:N20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -830,27 +876,22 @@
     <mergeCell ref="F16:N16"/>
     <mergeCell ref="F17:N17"/>
     <mergeCell ref="F18:N18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:N19"/>
     <mergeCell ref="B12:C14"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D12:E12"/>
@@ -858,6 +899,13 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -87,10 +87,16 @@
     <t>Factorial of Large Number</t>
   </si>
   <si>
-    <t>Cyclically rotate an array by one</t>
-  </si>
-  <si>
-    <t>Find minimum and maximum element in an array</t>
+    <t>Cyclically rotate an array by one: https://practice.geeksforgeeks.org/problems/cyclically-rotate-an-array-by-one2614/1?page=1&amp;difficulty%5B%5D=-1&amp;category%5B%5D=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Find minimum and maximum element in an array: https://practice.geeksforgeeks.org/problems/find-minimum-and-maximum-element-in-an-array4428/1?page=1&amp;difficulty%5B%5D=-1&amp;category%5B%5D=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Binary Array Sorting: https://practice.geeksforgeeks.org/problems/binary-array-sorting-1587115620/1?page=1&amp;difficulty%5B%5D=-1&amp;category%5B%5D=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Move all negative elements to end: https://practice.geeksforgeeks.org/problems/move-all-negative-elements-to-end1813/1?page=2&amp;difficulty%5B%5D=0&amp;category%5B%5D=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +202,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -205,24 +229,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,62 +515,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="3">
         <v>45077</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -567,17 +579,17 @@
         <v>45077</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -586,17 +598,17 @@
         <v>45077</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -605,17 +617,17 @@
         <v>45077</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
@@ -624,17 +636,17 @@
         <v>45077</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
@@ -643,17 +655,17 @@
         <v>45077</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
@@ -662,17 +674,17 @@
         <v>45077</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
@@ -681,21 +693,21 @@
         <v>45077</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3">
         <v>45078</v>
       </c>
@@ -713,13 +725,13 @@
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3">
         <v>45078</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="5"/>
@@ -732,8 +744,8 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3">
         <v>45078</v>
       </c>
@@ -864,8 +876,78 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <v>45079</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="17">
+        <v>45079</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="44">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:N21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:N22"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:N20"/>
     <mergeCell ref="D15:E15"/>
@@ -876,36 +958,8 @@
     <mergeCell ref="F16:N16"/>
     <mergeCell ref="F17:N17"/>
     <mergeCell ref="F18:N18"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:N4"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:N19"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -97,13 +97,34 @@
   </si>
   <si>
     <t>Move all negative elements to end: https://practice.geeksforgeeks.org/problems/move-all-negative-elements-to-end1813/1?page=2&amp;difficulty%5B%5D=0&amp;category%5B%5D=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>return first occurrence of target in array; otherwise return -1</t>
+  </si>
+  <si>
+    <t>return last occurrence of target in array; otherwise return -1</t>
+  </si>
+  <si>
+    <t>find total occurrence of target..</t>
+  </si>
+  <si>
+    <t>return the missing element from array : size-N, arr[i]=[1,N]</t>
+  </si>
+  <si>
+    <t>Peak Element In Mountain Array: https://practice.geeksforgeeks.org/problems/peak-element/1</t>
+  </si>
+  <si>
+    <t>BinarySearch</t>
+  </si>
+  <si>
+    <t>Find Square root of given number using binary search..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +153,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -202,7 +236,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,17 +283,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,415 +567,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N22"/>
+  <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="13">
         <v>45077</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="3">
+      <c r="D5" s="13">
         <v>45077</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="3">
+      <c r="D6" s="13">
         <v>45077</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3">
+      <c r="D7" s="13">
         <v>45077</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3">
+      <c r="D8" s="13">
         <v>45077</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3">
+      <c r="D9" s="13">
         <v>45077</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="3">
+      <c r="D10" s="13">
         <v>45077</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="3">
+      <c r="D11" s="13">
         <v>45077</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="13">
         <v>45078</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13">
         <v>45078</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="13">
         <v>45078</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3">
+      <c r="D15" s="13">
         <v>45079</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3">
+      <c r="D16" s="13">
         <v>45079</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
+      <c r="D17" s="13">
         <v>45079</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3">
+      <c r="D18" s="13">
         <v>45079</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3">
+      <c r="D19" s="13">
         <v>45079</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="D20" s="13">
         <v>45079</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13">
         <v>45079</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="17">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="7">
         <v>45079</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="5" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="13">
+        <v>45052</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="13">
+        <v>45053</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="13">
+        <v>45053</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="13">
+        <v>45053</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="13">
+        <v>45053</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="13">
+        <v>45053</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:N21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:N22"/>
-    <mergeCell ref="F12:N12"/>
+  <mergeCells count="57">
     <mergeCell ref="F13:N13"/>
     <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="B12:C14"/>
     <mergeCell ref="B4:C4"/>
@@ -934,17 +1113,18 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F12:N12"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:N4"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
@@ -960,6 +1140,22 @@
     <mergeCell ref="F18:N18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:N19"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -118,13 +118,28 @@
   </si>
   <si>
     <t>Find Square root of given number using binary search..</t>
+  </si>
+  <si>
+    <t>Exceptionally odd: https://practice.geeksforgeeks.org/problems/find-the-odd-occurence4820/1</t>
+  </si>
+  <si>
+    <t>binary search in 2d array</t>
+  </si>
+  <si>
+    <t>Nearly sorted array</t>
+  </si>
+  <si>
+    <t>Square Root using binary search</t>
+  </si>
+  <si>
+    <t>Divide Two Numbers using BinarySearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +171,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -236,34 +257,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,9 +305,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,108 +594,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13">
+      <c r="C4" s="8"/>
+      <c r="D4" s="11">
         <v>45077</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>45077</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>45077</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>45077</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
@@ -684,10 +711,10 @@
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>45077</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
@@ -703,10 +730,10 @@
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>45077</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="15" t="s">
         <v>10</v>
       </c>
@@ -722,10 +749,10 @@
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>45077</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
         <v>11</v>
       </c>
@@ -741,10 +768,10 @@
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>45077</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="15" t="s">
         <v>12</v>
       </c>
@@ -758,364 +785,471 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="13">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="11">
         <v>45078</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="11">
         <v>45078</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="13">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="11">
         <v>45078</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>45079</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>45079</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>45079</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>45079</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>45079</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>45079</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+      <c r="D21" s="11">
+        <v>45085</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13">
+      <c r="C23" s="9"/>
+      <c r="D23" s="11">
         <v>45079</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="23" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7">
-        <v>45079</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="13">
-        <v>45052</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="D24" s="6">
+        <v>45079</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="13">
-        <v>45053</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="D25" s="11">
+        <v>45052</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <v>45053</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <v>45053</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <v>45053</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <v>45053</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="11">
+        <v>45053</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="11">
+        <v>45085</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="11">
+        <v>45085</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="11">
+        <v>45085</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="25">
+        <v>45085</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="D29:E29"/>
+  <mergeCells count="67">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F31:N31"/>
+    <mergeCell ref="F32:N32"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="F11:N11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:N21"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F12:N12"/>
@@ -1128,34 +1262,32 @@
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="F19:N19"/>
     <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F26:N26"/>
     <mergeCell ref="F27:N27"/>
     <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:N23"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F24:N24"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Divide Two Numbers using BinarySearch</t>
+  </si>
+  <si>
+    <t>Closest element in an array gfg:https://practice.geeksforgeeks.org/problems/find-the-closest-number5513/1</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -257,35 +266,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,18 +302,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,385 +606,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N34"/>
+  <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11">
+      <c r="C4" s="21"/>
+      <c r="D4" s="9">
         <v>45077</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>45077</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>45077</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>45077</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>45077</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>45077</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>45077</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>45077</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="11">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="9">
         <v>45078</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="11">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="9">
         <v>45078</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="11">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="9">
         <v>45078</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>45079</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>45079</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>45079</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>45079</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>45079</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>45079</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>45085</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -990,245 +1002,301 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="11">
+      <c r="C23" s="26"/>
+      <c r="D23" s="9">
         <v>45079</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="6">
+      <c r="D24" s="24">
         <v>45079</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>45052</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>45053</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>45053</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>45053</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>45053</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>45053</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>45085</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>45085</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>45085</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="25">
+      <c r="D34" s="6">
         <v>45085</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="9">
+        <v>45087</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F31:N31"/>
-    <mergeCell ref="F32:N32"/>
-    <mergeCell ref="F33:N33"/>
+  <mergeCells count="69">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F19:N19"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="F30:N30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F11:N11"/>
@@ -1245,49 +1313,14 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:N21"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F19:N19"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F27:N27"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="F24:N24"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="F26:N26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F31:N31"/>
+    <mergeCell ref="F32:N32"/>
+    <mergeCell ref="F33:N33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -136,13 +136,31 @@
   </si>
   <si>
     <t>Closest element in an array gfg:https://practice.geeksforgeeks.org/problems/find-the-closest-number5513/1</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>find last occurrence of character via recursion  ( AT UPDATE FOLDER)</t>
+  </si>
+  <si>
+    <t>Palindrome (AT UPDATE FOLDER)</t>
+  </si>
+  <si>
+    <t>Reverse string via recursion (AT UPDATE FOLDER)</t>
+  </si>
+  <si>
+    <t>Add Strings LEETCODE:415 (AT UPDATE FOLDER)</t>
+  </si>
+  <si>
+    <t>Remove Character (AT UPDATE FOLDER), GFG: https://practice.geeksforgeeks.org/problems/remove-character3815/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +171,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,8 +195,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -253,9 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,15 +297,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,37 +306,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,11 +345,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,51 +638,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N35"/>
+  <dimension ref="A1:TU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="1:541" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27"/>
+      <c r="CK1" s="27"/>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="27"/>
+      <c r="CP1" s="27"/>
+      <c r="CQ1" s="27"/>
+      <c r="CR1" s="27"/>
+      <c r="CS1" s="27"/>
+      <c r="CT1" s="27"/>
+      <c r="CU1" s="27"/>
+      <c r="CV1" s="27"/>
+      <c r="CW1" s="27"/>
+      <c r="CX1" s="27"/>
+      <c r="CY1" s="27"/>
+      <c r="CZ1" s="27"/>
+      <c r="DA1" s="27"/>
+      <c r="DB1" s="27"/>
+      <c r="DC1" s="27"/>
+      <c r="DD1" s="27"/>
+      <c r="DE1" s="27"/>
+      <c r="DF1" s="27"/>
+      <c r="DG1" s="27"/>
+      <c r="DH1" s="27"/>
+      <c r="DI1" s="27"/>
+      <c r="DJ1" s="27"/>
+      <c r="DK1" s="27"/>
+      <c r="DL1" s="27"/>
+      <c r="DM1" s="27"/>
+      <c r="DN1" s="27"/>
+      <c r="DO1" s="27"/>
+      <c r="DP1" s="27"/>
+      <c r="DQ1" s="27"/>
+      <c r="DR1" s="27"/>
+      <c r="DS1" s="27"/>
+      <c r="DT1" s="27"/>
+      <c r="DU1" s="27"/>
+      <c r="DV1" s="27"/>
+      <c r="DW1" s="27"/>
+      <c r="DX1" s="27"/>
+      <c r="DY1" s="27"/>
+      <c r="DZ1" s="27"/>
+      <c r="EA1" s="27"/>
+      <c r="EB1" s="27"/>
+      <c r="EC1" s="27"/>
+      <c r="ED1" s="27"/>
+      <c r="EE1" s="27"/>
+      <c r="EF1" s="27"/>
+      <c r="EG1" s="27"/>
+      <c r="EH1" s="27"/>
+      <c r="EI1" s="27"/>
+      <c r="EJ1" s="27"/>
+      <c r="EK1" s="27"/>
+      <c r="EL1" s="27"/>
+      <c r="EM1" s="27"/>
+      <c r="EN1" s="27"/>
+      <c r="EO1" s="27"/>
+      <c r="EP1" s="27"/>
+      <c r="EQ1" s="27"/>
+      <c r="ER1" s="27"/>
+      <c r="ES1" s="27"/>
+      <c r="ET1" s="27"/>
+      <c r="EU1" s="27"/>
+      <c r="EV1" s="27"/>
+      <c r="EW1" s="27"/>
+      <c r="EX1" s="27"/>
+      <c r="EY1" s="27"/>
+      <c r="EZ1" s="27"/>
+      <c r="FA1" s="27"/>
+      <c r="FB1" s="27"/>
+      <c r="FC1" s="27"/>
+      <c r="FD1" s="27"/>
+      <c r="FE1" s="27"/>
+      <c r="FF1" s="27"/>
+      <c r="FG1" s="27"/>
+      <c r="FH1" s="27"/>
+      <c r="FI1" s="27"/>
+      <c r="FJ1" s="27"/>
+      <c r="FK1" s="27"/>
+      <c r="FL1" s="27"/>
+      <c r="FM1" s="27"/>
+      <c r="FN1" s="27"/>
+      <c r="FO1" s="27"/>
+      <c r="FP1" s="27"/>
+      <c r="FQ1" s="27"/>
+      <c r="FR1" s="27"/>
+      <c r="FS1" s="27"/>
+      <c r="FT1" s="27"/>
+      <c r="FU1" s="27"/>
+      <c r="FV1" s="27"/>
+      <c r="FW1" s="27"/>
+      <c r="FX1" s="27"/>
+      <c r="FY1" s="27"/>
+      <c r="FZ1" s="27"/>
+      <c r="GA1" s="27"/>
+      <c r="GB1" s="27"/>
+      <c r="GC1" s="27"/>
+      <c r="GD1" s="27"/>
+      <c r="GE1" s="27"/>
+      <c r="GF1" s="27"/>
+      <c r="GG1" s="27"/>
+      <c r="GH1" s="27"/>
+      <c r="GI1" s="27"/>
+      <c r="GJ1" s="27"/>
+      <c r="GK1" s="27"/>
+      <c r="GL1" s="27"/>
+      <c r="GM1" s="27"/>
+      <c r="GN1" s="27"/>
+      <c r="GO1" s="27"/>
+      <c r="GP1" s="27"/>
+      <c r="GQ1" s="27"/>
+      <c r="GR1" s="27"/>
+      <c r="GS1" s="27"/>
+      <c r="GT1" s="27"/>
+      <c r="GU1" s="27"/>
+      <c r="GV1" s="27"/>
+      <c r="GW1" s="27"/>
+      <c r="GX1" s="27"/>
+      <c r="GY1" s="27"/>
+      <c r="GZ1" s="27"/>
+      <c r="HA1" s="27"/>
+      <c r="HB1" s="27"/>
+      <c r="HC1" s="27"/>
+      <c r="HD1" s="27"/>
+      <c r="HE1" s="27"/>
+      <c r="HF1" s="27"/>
+      <c r="HG1" s="27"/>
+      <c r="HH1" s="27"/>
+      <c r="HI1" s="27"/>
+      <c r="HJ1" s="27"/>
+      <c r="HK1" s="27"/>
+      <c r="HL1" s="27"/>
+      <c r="HM1" s="27"/>
+      <c r="HN1" s="27"/>
+      <c r="HO1" s="27"/>
+      <c r="HP1" s="27"/>
+      <c r="HQ1" s="27"/>
+      <c r="HR1" s="27"/>
+      <c r="HS1" s="27"/>
+      <c r="HT1" s="27"/>
+      <c r="HU1" s="27"/>
+      <c r="HV1" s="27"/>
+      <c r="HW1" s="27"/>
+      <c r="HX1" s="27"/>
+      <c r="HY1" s="27"/>
+      <c r="HZ1" s="27"/>
+      <c r="IA1" s="27"/>
+      <c r="IB1" s="27"/>
+      <c r="IC1" s="27"/>
+      <c r="ID1" s="27"/>
+      <c r="IE1" s="27"/>
+      <c r="IF1" s="27"/>
+      <c r="IG1" s="27"/>
+      <c r="IH1" s="27"/>
+      <c r="II1" s="27"/>
+      <c r="IJ1" s="27"/>
+      <c r="IK1" s="27"/>
+      <c r="IL1" s="27"/>
+      <c r="IM1" s="27"/>
+      <c r="IN1" s="27"/>
+      <c r="IO1" s="27"/>
+      <c r="IP1" s="27"/>
+      <c r="IQ1" s="27"/>
+      <c r="IR1" s="27"/>
+      <c r="IS1" s="27"/>
+      <c r="IT1" s="27"/>
+      <c r="IU1" s="27"/>
+      <c r="IV1" s="27"/>
+      <c r="IW1" s="27"/>
+      <c r="IX1" s="27"/>
+      <c r="IY1" s="27"/>
+      <c r="IZ1" s="27"/>
+      <c r="JA1" s="27"/>
+      <c r="JB1" s="27"/>
+      <c r="JC1" s="27"/>
+      <c r="JD1" s="27"/>
+      <c r="JE1" s="27"/>
+      <c r="JF1" s="27"/>
+      <c r="JG1" s="27"/>
+      <c r="JH1" s="27"/>
+      <c r="JI1" s="27"/>
+      <c r="JJ1" s="27"/>
+      <c r="JK1" s="27"/>
+      <c r="JL1" s="27"/>
+      <c r="JM1" s="27"/>
+      <c r="JN1" s="27"/>
+      <c r="JO1" s="27"/>
+      <c r="JP1" s="27"/>
+      <c r="JQ1" s="27"/>
+      <c r="JR1" s="27"/>
+      <c r="JS1" s="27"/>
+      <c r="JT1" s="27"/>
+      <c r="JU1" s="27"/>
+      <c r="JV1" s="27"/>
+      <c r="JW1" s="27"/>
+      <c r="JX1" s="27"/>
+      <c r="JY1" s="27"/>
+      <c r="JZ1" s="27"/>
+      <c r="KA1" s="27"/>
+      <c r="KB1" s="27"/>
+      <c r="KC1" s="27"/>
+      <c r="KD1" s="27"/>
+      <c r="KE1" s="27"/>
+      <c r="KF1" s="27"/>
+      <c r="KG1" s="27"/>
+      <c r="KH1" s="27"/>
+      <c r="KI1" s="27"/>
+      <c r="KJ1" s="27"/>
+      <c r="KK1" s="27"/>
+      <c r="KL1" s="27"/>
+      <c r="KM1" s="27"/>
+      <c r="KN1" s="27"/>
+      <c r="KO1" s="27"/>
+      <c r="KP1" s="27"/>
+      <c r="KQ1" s="27"/>
+      <c r="KR1" s="27"/>
+      <c r="KS1" s="27"/>
+      <c r="KT1" s="27"/>
+      <c r="KU1" s="27"/>
+      <c r="KV1" s="27"/>
+      <c r="KW1" s="27"/>
+      <c r="KX1" s="27"/>
+      <c r="KY1" s="27"/>
+      <c r="KZ1" s="27"/>
+      <c r="LA1" s="27"/>
+      <c r="LB1" s="27"/>
+      <c r="LC1" s="27"/>
+      <c r="LD1" s="27"/>
+      <c r="LE1" s="27"/>
+      <c r="LF1" s="27"/>
+      <c r="LG1" s="27"/>
+      <c r="LH1" s="27"/>
+      <c r="LI1" s="27"/>
+      <c r="LJ1" s="27"/>
+      <c r="LK1" s="27"/>
+      <c r="LL1" s="27"/>
+      <c r="LM1" s="27"/>
+      <c r="LN1" s="27"/>
+      <c r="LO1" s="27"/>
+      <c r="LP1" s="27"/>
+      <c r="LQ1" s="27"/>
+      <c r="LR1" s="27"/>
+      <c r="LS1" s="27"/>
+      <c r="LT1" s="27"/>
+      <c r="LU1" s="27"/>
+      <c r="LV1" s="27"/>
+      <c r="LW1" s="27"/>
+      <c r="LX1" s="27"/>
+      <c r="LY1" s="27"/>
+      <c r="LZ1" s="27"/>
+      <c r="MA1" s="27"/>
+      <c r="MB1" s="27"/>
+      <c r="MC1" s="27"/>
+      <c r="MD1" s="27"/>
+      <c r="ME1" s="27"/>
+      <c r="MF1" s="27"/>
+      <c r="MG1" s="27"/>
+      <c r="MH1" s="27"/>
+      <c r="MI1" s="27"/>
+      <c r="MJ1" s="27"/>
+      <c r="MK1" s="27"/>
+      <c r="ML1" s="27"/>
+      <c r="MM1" s="27"/>
+      <c r="MN1" s="27"/>
+      <c r="MO1" s="27"/>
+      <c r="MP1" s="27"/>
+      <c r="MQ1" s="27"/>
+      <c r="MR1" s="27"/>
+      <c r="MS1" s="27"/>
+      <c r="MT1" s="27"/>
+      <c r="MU1" s="27"/>
+      <c r="MV1" s="27"/>
+      <c r="MW1" s="27"/>
+      <c r="MX1" s="27"/>
+      <c r="MY1" s="27"/>
+      <c r="MZ1" s="27"/>
+      <c r="NA1" s="27"/>
+      <c r="NB1" s="27"/>
+      <c r="NC1" s="27"/>
+      <c r="ND1" s="27"/>
+      <c r="NE1" s="27"/>
+      <c r="NF1" s="27"/>
+      <c r="NG1" s="27"/>
+      <c r="NH1" s="27"/>
+      <c r="NI1" s="27"/>
+      <c r="NJ1" s="27"/>
+      <c r="NK1" s="27"/>
+      <c r="NL1" s="27"/>
+      <c r="NM1" s="27"/>
+      <c r="NN1" s="27"/>
+      <c r="NO1" s="27"/>
+      <c r="NP1" s="27"/>
+      <c r="NQ1" s="27"/>
+      <c r="NR1" s="27"/>
+      <c r="NS1" s="27"/>
+      <c r="NT1" s="27"/>
+      <c r="NU1" s="27"/>
+      <c r="NV1" s="27"/>
+      <c r="NW1" s="27"/>
+      <c r="NX1" s="27"/>
+      <c r="NY1" s="27"/>
+      <c r="NZ1" s="27"/>
+      <c r="OA1" s="27"/>
+      <c r="OB1" s="27"/>
+      <c r="OC1" s="27"/>
+      <c r="OD1" s="27"/>
+      <c r="OE1" s="27"/>
+      <c r="OF1" s="27"/>
+      <c r="OG1" s="27"/>
+      <c r="OH1" s="27"/>
+      <c r="OI1" s="27"/>
+      <c r="OJ1" s="27"/>
+      <c r="OK1" s="27"/>
+      <c r="OL1" s="27"/>
+      <c r="OM1" s="27"/>
+      <c r="ON1" s="27"/>
+      <c r="OO1" s="27"/>
+      <c r="OP1" s="27"/>
+      <c r="OQ1" s="27"/>
+      <c r="OR1" s="27"/>
+      <c r="OS1" s="27"/>
+      <c r="OT1" s="27"/>
+      <c r="OU1" s="27"/>
+      <c r="OV1" s="27"/>
+      <c r="OW1" s="27"/>
+      <c r="OX1" s="27"/>
+      <c r="OY1" s="27"/>
+      <c r="OZ1" s="27"/>
+      <c r="PA1" s="27"/>
+      <c r="PB1" s="27"/>
+      <c r="PC1" s="27"/>
+      <c r="PD1" s="27"/>
+      <c r="PE1" s="27"/>
+      <c r="PF1" s="27"/>
+      <c r="PG1" s="27"/>
+      <c r="PH1" s="27"/>
+      <c r="PI1" s="27"/>
+      <c r="PJ1" s="27"/>
+      <c r="PK1" s="27"/>
+      <c r="PL1" s="27"/>
+      <c r="PM1" s="27"/>
+      <c r="PN1" s="27"/>
+      <c r="PO1" s="27"/>
+      <c r="PP1" s="27"/>
+      <c r="PQ1" s="27"/>
+      <c r="PR1" s="27"/>
+      <c r="PS1" s="27"/>
+      <c r="PT1" s="27"/>
+      <c r="PU1" s="27"/>
+      <c r="PV1" s="27"/>
+      <c r="PW1" s="27"/>
+      <c r="PX1" s="27"/>
+      <c r="PY1" s="27"/>
+      <c r="PZ1" s="27"/>
+      <c r="QA1" s="27"/>
+      <c r="QB1" s="27"/>
+      <c r="QC1" s="27"/>
+      <c r="QD1" s="27"/>
+      <c r="QE1" s="27"/>
+      <c r="QF1" s="27"/>
+      <c r="QG1" s="27"/>
+      <c r="QH1" s="27"/>
+      <c r="QI1" s="27"/>
+      <c r="QJ1" s="27"/>
+      <c r="QK1" s="27"/>
+      <c r="QL1" s="27"/>
+      <c r="QM1" s="27"/>
+      <c r="QN1" s="27"/>
+      <c r="QO1" s="27"/>
+      <c r="QP1" s="27"/>
+      <c r="QQ1" s="27"/>
+      <c r="QR1" s="27"/>
+      <c r="QS1" s="27"/>
+      <c r="QT1" s="27"/>
+      <c r="QU1" s="27"/>
+      <c r="QV1" s="27"/>
+      <c r="QW1" s="27"/>
+      <c r="QX1" s="27"/>
+      <c r="QY1" s="27"/>
+      <c r="QZ1" s="27"/>
+      <c r="RA1" s="27"/>
+      <c r="RB1" s="27"/>
+      <c r="RC1" s="27"/>
+      <c r="RD1" s="27"/>
+      <c r="RE1" s="27"/>
+      <c r="RF1" s="27"/>
+      <c r="RG1" s="27"/>
+      <c r="RH1" s="27"/>
+      <c r="RI1" s="27"/>
+      <c r="RJ1" s="27"/>
+      <c r="RK1" s="27"/>
+      <c r="RL1" s="27"/>
+      <c r="RM1" s="27"/>
+      <c r="RN1" s="27"/>
+      <c r="RO1" s="27"/>
+      <c r="RP1" s="27"/>
+      <c r="RQ1" s="27"/>
+      <c r="RR1" s="27"/>
+      <c r="RS1" s="27"/>
+      <c r="RT1" s="27"/>
+      <c r="RU1" s="27"/>
+      <c r="RV1" s="27"/>
+      <c r="RW1" s="27"/>
+      <c r="RX1" s="27"/>
+      <c r="RY1" s="27"/>
+      <c r="RZ1" s="27"/>
+      <c r="SA1" s="27"/>
+      <c r="SB1" s="27"/>
+      <c r="SC1" s="27"/>
+      <c r="SD1" s="27"/>
+      <c r="SE1" s="27"/>
+      <c r="SF1" s="27"/>
+      <c r="SG1" s="27"/>
+      <c r="SH1" s="27"/>
+      <c r="SI1" s="27"/>
+      <c r="SJ1" s="27"/>
+      <c r="SK1" s="27"/>
+      <c r="SL1" s="27"/>
+      <c r="SM1" s="27"/>
+      <c r="SN1" s="27"/>
+      <c r="SO1" s="27"/>
+      <c r="SP1" s="27"/>
+      <c r="SQ1" s="27"/>
+      <c r="SR1" s="27"/>
+      <c r="SS1" s="27"/>
+      <c r="ST1" s="27"/>
+      <c r="SU1" s="27"/>
+      <c r="SV1" s="27"/>
+      <c r="SW1" s="27"/>
+      <c r="SX1" s="27"/>
+      <c r="SY1" s="27"/>
+      <c r="SZ1" s="27"/>
+      <c r="TA1" s="27"/>
+      <c r="TB1" s="27"/>
+      <c r="TC1" s="27"/>
+      <c r="TD1" s="27"/>
+      <c r="TE1" s="27"/>
+      <c r="TF1" s="27"/>
+      <c r="TG1" s="27"/>
+      <c r="TH1" s="27"/>
+      <c r="TI1" s="27"/>
+      <c r="TJ1" s="27"/>
+      <c r="TK1" s="27"/>
+      <c r="TL1" s="27"/>
+      <c r="TM1" s="27"/>
+      <c r="TN1" s="27"/>
+      <c r="TO1" s="27"/>
+      <c r="TP1" s="27"/>
+      <c r="TQ1" s="27"/>
+      <c r="TR1" s="27"/>
+      <c r="TS1" s="27"/>
+      <c r="TT1" s="27"/>
+      <c r="TU1" s="27"/>
+    </row>
+    <row r="3" spans="1:541" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="9">
+      <c r="C4" s="13"/>
+      <c r="D4" s="8">
         <v>45077</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
@@ -663,317 +1233,317 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>45077</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>45077</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>45077</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>45077</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>45077</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>45077</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>45077</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>45078</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>45078</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>45078</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>45079</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>45079</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>45079</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>45079</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>45079</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>45079</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>45085</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="14" t="s">
         <v>31</v>
       </c>
@@ -1002,25 +1572,25 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="9">
+      <c r="C23" s="23"/>
+      <c r="D23" s="8">
         <v>45079</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1029,229 +1599,342 @@
         <v>45079</v>
       </c>
       <c r="E24" s="25"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>45052</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>45053</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>45053</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>45053</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>45053</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>45053</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>45085</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>45085</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>45085</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="6">
+      <c r="D34" s="15">
         <v>45085</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>45087</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="8">
+        <v>45090</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="8">
+        <v>45090</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="8">
+        <v>45090</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8">
+        <v>45090</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8">
+        <v>45090</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="80">
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:N35"/>
     <mergeCell ref="B23:C23"/>
@@ -1264,22 +1947,19 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F19:N19"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F27:N27"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F13:N13"/>
     <mergeCell ref="F14:N14"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F12:N12"/>
-    <mergeCell ref="E1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:N3"/>
@@ -1297,9 +1977,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F30:N30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F11:N11"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:N20"/>
     <mergeCell ref="D15:E15"/>
@@ -1311,6 +1988,7 @@
     <mergeCell ref="F17:N17"/>
     <mergeCell ref="F18:N18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:N19"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:N21"/>
     <mergeCell ref="D34:E34"/>
@@ -1321,6 +1999,21 @@
     <mergeCell ref="F31:N31"/>
     <mergeCell ref="F32:N32"/>
     <mergeCell ref="F33:N33"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Best Time to but and sell stock LeetCode: https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>HouseRobber : leetcode 191</t>
+  </si>
+  <si>
+    <t>Wild Card Pattern Matching: leetcode 44</t>
+  </si>
+  <si>
+    <t>Perfect squares ,  leetcode : 279 https://leetcode.com/problems/perfect-squares/</t>
+  </si>
+  <si>
+    <t>Minimum cost tickets , leetcode: https://leetcode.com/problems/minimum-cost-for-tickets/</t>
   </si>
 </sst>
 </file>
@@ -306,41 +318,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,20 +364,18 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,37 +656,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TU43"/>
+  <dimension ref="A1:TU47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:541" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1198,369 +1210,369 @@
       <c r="TU1" s="8"/>
     </row>
     <row r="3" spans="1:541" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10">
+      <c r="C4" s="14"/>
+      <c r="D4" s="9">
         <v>45077</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>45077</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>45077</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>45077</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>45077</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>45077</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>45077</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>45077</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="10">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="9">
         <v>45078</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="10">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="9">
         <v>45078</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="10">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="9">
         <v>45078</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>45079</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>45079</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>45079</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>45079</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>45079</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>45079</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>45085</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1578,253 +1590,253 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10">
+      <c r="C23" s="28"/>
+      <c r="D23" s="9">
         <v>45079</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="16" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="17">
+      <c r="D24" s="29">
         <v>45079</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>45052</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>45053</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>45053</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>45053</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>45053</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>45053</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>45085</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>45085</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>45085</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="16" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="28">
+      <c r="D34" s="16">
         <v>45085</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>45087</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -1842,187 +1854,243 @@
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="10">
+      <c r="C37" s="14"/>
+      <c r="D37" s="9">
         <v>45090</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="19" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>45090</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>45090</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>45090</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>45090</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="16" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>45091</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="16" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>45091</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="16" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="9">
+        <v>45092</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="9">
+        <v>45093</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="9">
+        <v>45093</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="9">
+        <v>45093</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="F43:N43"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="F37:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:N21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F31:N31"/>
-    <mergeCell ref="F32:N32"/>
-    <mergeCell ref="F33:N33"/>
-    <mergeCell ref="F27:N27"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="F24:N24"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:N19"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D20:E20"/>
+  <mergeCells count="92">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F45:N45"/>
+    <mergeCell ref="F46:N46"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F12:N12"/>
@@ -2039,29 +2107,57 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:N19"/>
     <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:N35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="F26:N26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F30:N30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:N21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F31:N31"/>
+    <mergeCell ref="F32:N32"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="F43:N43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -172,13 +172,31 @@
   </si>
   <si>
     <t>Minimum cost tickets , leetcode: https://leetcode.com/problems/minimum-cost-for-tickets/</t>
+  </si>
+  <si>
+    <t>Merge Sort Algorithm</t>
+  </si>
+  <si>
+    <t>Quick Sort Algorithm</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Divide&amp;Conquer</t>
+  </si>
+  <si>
+    <t>String Permutations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat In A Maze </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +240,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -302,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -318,19 +343,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -344,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -364,6 +389,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -374,6 +402,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,37 +687,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TU47"/>
+  <dimension ref="A1:TU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:541" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1210,369 +1241,369 @@
       <c r="TU1" s="8"/>
     </row>
     <row r="3" spans="1:541" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9">
+      <c r="C4" s="13"/>
+      <c r="D4" s="10">
         <v>45077</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>45077</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>45077</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>45077</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>45077</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>45077</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>45077</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>45077</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="9">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="10">
         <v>45078</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="10">
         <v>45078</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="10">
         <v>45078</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>45079</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>45079</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>45079</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>45079</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>45079</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>45079</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>45085</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1590,253 +1621,253 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="9">
+      <c r="C23" s="31"/>
+      <c r="D23" s="10">
         <v>45079</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="29">
+      <c r="D24" s="32">
         <v>45079</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="9">
+      <c r="D25" s="10">
         <v>45052</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>45053</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="9">
+      <c r="D27" s="10">
         <v>45053</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <v>45053</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>45053</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>45053</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="9">
+      <c r="D31" s="10">
         <v>45085</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <v>45085</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>45085</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="16">
+      <c r="D34" s="19">
         <v>45085</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>45087</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -1854,229 +1885,335 @@
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="9">
+      <c r="C37" s="13"/>
+      <c r="D37" s="10">
         <v>45090</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>45090</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="9">
+      <c r="D39" s="10">
         <v>45090</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>45090</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="9">
+      <c r="D41" s="10">
         <v>45090</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="9">
+      <c r="D42" s="10">
         <v>45091</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="9">
+      <c r="D43" s="10">
         <v>45091</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="9">
+      <c r="D44" s="10">
         <v>45092</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="9">
+      <c r="D45" s="10">
         <v>45093</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="9">
+      <c r="D46" s="10">
         <v>45093</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>45093</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="10">
+        <v>45095</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="10">
+        <v>45095</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B52" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="10">
+        <v>45095</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="10">
+        <v>45095</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="106">
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="F45:N45"/>
     <mergeCell ref="F46:N46"/>
     <mergeCell ref="F47:N47"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:N35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="F26:N26"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:N23"/>
     <mergeCell ref="D25:E25"/>
@@ -2087,9 +2224,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F30:N30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
@@ -2111,6 +2245,9 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D10:E10"/>
@@ -2127,6 +2264,11 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:N19"/>
     <mergeCell ref="F13:N13"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:N21"/>
     <mergeCell ref="D34:E34"/>
@@ -2141,23 +2283,37 @@
     <mergeCell ref="F28:N28"/>
     <mergeCell ref="F29:N29"/>
     <mergeCell ref="F24:N24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="F43:N43"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:N41"/>
     <mergeCell ref="F37:N37"/>
     <mergeCell ref="F38:N38"/>
     <mergeCell ref="F39:N39"/>
     <mergeCell ref="F40:N40"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:N44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:N51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:N52"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:N48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:N49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:N50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rat In A Maze </t>
+  </si>
+  <si>
+    <t>N- Queen Problem</t>
   </si>
 </sst>
 </file>
@@ -350,33 +353,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,8 +376,28 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -398,15 +405,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,37 +690,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TU53"/>
+  <dimension ref="A1:TU54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:541" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1241,46 +1244,46 @@
       <c r="TU1" s="8"/>
     </row>
     <row r="3" spans="1:541" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="10">
         <v>45077</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -1289,17 +1292,17 @@
         <v>45077</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -1308,17 +1311,17 @@
         <v>45077</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1327,17 +1330,17 @@
         <v>45077</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
@@ -1346,17 +1349,17 @@
         <v>45077</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
@@ -1365,17 +1368,17 @@
         <v>45077</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
@@ -1384,17 +1387,17 @@
         <v>45077</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
@@ -1403,74 +1406,74 @@
         <v>45077</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="10">
         <v>45078</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="10">
         <v>45078</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="10">
         <v>45078</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1479,17 +1482,17 @@
         <v>45079</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -1498,17 +1501,17 @@
         <v>45079</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1517,17 +1520,17 @@
         <v>45079</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1536,17 +1539,17 @@
         <v>45079</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -1555,17 +1558,17 @@
         <v>45079</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -1574,17 +1577,17 @@
         <v>45079</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -1593,17 +1596,17 @@
         <v>45085</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1621,7 +1624,7 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="31"/>
@@ -1629,36 +1632,36 @@
         <v>45079</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="32">
+      <c r="D24" s="14">
         <v>45079</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -1667,17 +1670,17 @@
         <v>45052</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
@@ -1686,17 +1689,17 @@
         <v>45053</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -1705,17 +1708,17 @@
         <v>45053</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1724,17 +1727,17 @@
         <v>45053</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -1743,17 +1746,17 @@
         <v>45053</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -1762,17 +1765,17 @@
         <v>45053</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -1781,17 +1784,17 @@
         <v>45085</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -1800,17 +1803,17 @@
         <v>45085</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -1819,36 +1822,36 @@
         <v>45085</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="19">
+      <c r="D34" s="27">
         <v>45085</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="17" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -1885,25 +1888,25 @@
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="10">
         <v>45090</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -1912,17 +1915,17 @@
         <v>45090</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -1931,17 +1934,17 @@
         <v>45090</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -1950,17 +1953,17 @@
         <v>45090</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
@@ -1969,17 +1972,17 @@
         <v>45090</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
@@ -1988,17 +1991,17 @@
         <v>45091</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -2007,17 +2010,17 @@
         <v>45091</v>
       </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
@@ -2026,17 +2029,17 @@
         <v>45092</v>
       </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
@@ -2045,17 +2048,17 @@
         <v>45093</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -2064,17 +2067,17 @@
         <v>45093</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -2083,54 +2086,54 @@
         <v>45093</v>
       </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="34"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="10">
         <v>45095</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -2139,53 +2142,53 @@
         <v>45095</v>
       </c>
       <c r="E50" s="11"/>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="10">
         <v>45095</v>
       </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
@@ -2194,36 +2197,99 @@
         <v>45095</v>
       </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="10">
+        <v>45096</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F45:N45"/>
-    <mergeCell ref="F46:N46"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F30:N30"/>
-    <mergeCell ref="D30:E30"/>
+  <mergeCells count="108">
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:N54"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:N51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:N52"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:N48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:N49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:N50"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:N21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F31:N31"/>
+    <mergeCell ref="F32:N32"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:N19"/>
+    <mergeCell ref="F13:N13"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
@@ -2248,46 +2314,22 @@
     <mergeCell ref="F14:N14"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="F10:N10"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:N19"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:N21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F31:N31"/>
-    <mergeCell ref="F32:N32"/>
-    <mergeCell ref="F33:N33"/>
-    <mergeCell ref="F27:N27"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="F24:N24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:N35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F45:N45"/>
+    <mergeCell ref="F46:N46"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:N44"/>
     <mergeCell ref="D42:E42"/>
@@ -2296,24 +2338,6 @@
     <mergeCell ref="F43:N43"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:N41"/>
-    <mergeCell ref="F37:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:N51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:N52"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:N48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:N49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:N50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
+++ b/Problem-Practice/PROGRESS-CARD-DSA-AT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>DSA PROGRESS CARD</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>N- Queen Problem</t>
+  </si>
+  <si>
+    <t>Generate Parentheses: https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>Phone keypad problem : LEETCODE:17</t>
+  </si>
+  <si>
+    <t>Suduko Solver : LEETCODE:37</t>
   </si>
 </sst>
 </file>
@@ -354,15 +363,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,40 +409,16 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,37 +699,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TU54"/>
+  <dimension ref="A1:TU57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:541" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1244,46 +1253,46 @@
       <c r="TU1" s="8"/>
     </row>
     <row r="3" spans="1:541" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="10">
         <v>45077</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -1292,17 +1301,17 @@
         <v>45077</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -1311,17 +1320,17 @@
         <v>45077</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1330,17 +1339,17 @@
         <v>45077</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
@@ -1349,17 +1358,17 @@
         <v>45077</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
@@ -1368,17 +1377,17 @@
         <v>45077</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
@@ -1387,17 +1396,17 @@
         <v>45077</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:541" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
@@ -1406,40 +1415,40 @@
         <v>45077</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="10">
         <v>45078</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="10">
         <v>45078</v>
       </c>
@@ -1447,33 +1456,33 @@
       <c r="F13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:541" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="10">
         <v>45078</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1482,17 +1491,17 @@
         <v>45079</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:541" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -1501,17 +1510,17 @@
         <v>45079</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1520,17 +1529,17 @@
         <v>45079</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1539,17 +1548,17 @@
         <v>45079</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -1558,17 +1567,17 @@
         <v>45079</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -1577,17 +1586,17 @@
         <v>45079</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -1596,17 +1605,17 @@
         <v>45085</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1624,44 +1633,44 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="10">
         <v>45079</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="14">
+      <c r="D24" s="33">
         <v>45079</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -1670,17 +1679,17 @@
         <v>45052</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
@@ -1689,17 +1698,17 @@
         <v>45053</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -1708,17 +1717,17 @@
         <v>45053</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1727,17 +1736,17 @@
         <v>45053</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -1746,17 +1755,17 @@
         <v>45053</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -1765,17 +1774,17 @@
         <v>45053</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -1784,17 +1793,17 @@
         <v>45085</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -1803,17 +1812,17 @@
         <v>45085</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -1822,36 +1831,36 @@
         <v>45085</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="27">
+      <c r="D34" s="20">
         <v>45085</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="16" t="s">
+      <c r="E34" s="21"/>
+      <c r="F34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -1860,17 +1869,17 @@
         <v>45087</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -1888,25 +1897,25 @@
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="10">
         <v>45090</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -1915,17 +1924,17 @@
         <v>45090</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -1953,17 +1962,17 @@
         <v>45090</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
@@ -1972,17 +1981,17 @@
         <v>45090</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
@@ -1991,17 +2000,17 @@
         <v>45091</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -2115,25 +2124,25 @@
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="10">
         <v>45095</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -2142,53 +2151,53 @@
         <v>45095</v>
       </c>
       <c r="E50" s="11"/>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
     </row>
     <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="24"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="10">
         <v>45095</v>
       </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
@@ -2228,8 +2237,155 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
     </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="10">
+        <v>45097</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="10">
+        <v>45097</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="10">
+        <v>45097</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="114">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:N55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:N56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:N57"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F45:N45"/>
+    <mergeCell ref="F46:N46"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:N19"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:N21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F31:N31"/>
+    <mergeCell ref="F32:N32"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:N35"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:N54"/>
     <mergeCell ref="F37:N37"/>
@@ -2254,90 +2410,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:N21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F31:N31"/>
-    <mergeCell ref="F32:N32"/>
-    <mergeCell ref="F33:N33"/>
-    <mergeCell ref="F27:N27"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="F24:N24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:N35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="F26:N26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:N19"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F45:N45"/>
-    <mergeCell ref="F46:N46"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F30:N30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:N44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="F43:N43"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
